--- a/Report/Misc/Test Output/Curve Test/Graphs.xlsx
+++ b/Report/Misc/Test Output/Curve Test/Graphs.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -445,7 +445,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation X Over Time</a:t>
+              <a:t>Rotation X Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,37 +490,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.09196224660921</c:v>
+                  <c:v>0.347582378435175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90520728410881</c:v>
+                  <c:v>0.606446313761203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.79491689493154</c:v>
+                  <c:v>0.889649678718812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.15276629955035</c:v>
+                  <c:v>1.00355668197396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.67002215059018</c:v>
+                  <c:v>0.84989444686256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.70950729254276</c:v>
+                  <c:v>0.544153071719646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.970025941580834</c:v>
+                  <c:v>0.30876884705992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.736519762918977</c:v>
+                  <c:v>0.234441521906852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.595469593176294</c:v>
+                  <c:v>0.189543858429854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.526846060030949</c:v>
+                  <c:v>0.16770030940483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86160517717095</c:v>
+                  <c:v>0.27425744588065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,11 +535,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43534002"/>
-        <c:axId val="35183751"/>
+        <c:axId val="34265012"/>
+        <c:axId val="2800998"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43534002"/>
+        <c:axId val="34265012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35183751"/>
+        <c:crossAx val="2800998"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35183751"/>
+        <c:axId val="2800998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43534002"/>
+        <c:crossAx val="34265012"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,7 +647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -667,7 +667,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Y Over Time</a:t>
+              <a:t>Rotation Y Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -712,37 +712,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0922409249816</c:v>
+                  <c:v>0.347671084516172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.71050419214738</c:v>
+                  <c:v>0.544470394719331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.16393692894263</c:v>
+                  <c:v>0.688802517560629</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.24888879551982</c:v>
+                  <c:v>0.715843536541915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.09872058344424</c:v>
+                  <c:v>0.668043510047716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.00235866612356</c:v>
+                  <c:v>0.637370559112918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.04929876360653</c:v>
+                  <c:v>0.652312056200176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.20449717654015</c:v>
+                  <c:v>0.701713245356983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.23991108589231</c:v>
+                  <c:v>0.712985842812192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.90722719973279</c:v>
+                  <c:v>0.607089272873573</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.31273233501341</c:v>
+                  <c:v>0.417855680147901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,11 +757,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="66363104"/>
-        <c:axId val="62911296"/>
+        <c:axId val="59194985"/>
+        <c:axId val="17630339"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66363104"/>
+        <c:axId val="59194985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,14 +798,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62911296"/>
+        <c:crossAx val="17630339"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62911296"/>
+        <c:axId val="17630339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66363104"/>
+        <c:crossAx val="59194985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -869,7 +869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -889,7 +889,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Z Over Time</a:t>
+              <a:t>Rotation Z Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -934,37 +934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.09277975699174</c:v>
+                  <c:v>0.34784260007199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90397599339322</c:v>
+                  <c:v>0.606054381753665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.79356014604305</c:v>
+                  <c:v>0.889217812134537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.14976543178908</c:v>
+                  <c:v>1.00260147609842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.66866529940359</c:v>
+                  <c:v>0.849462547715788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.70935073551528</c:v>
+                  <c:v>0.544103238070047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.970282432381484</c:v>
+                  <c:v>0.308850490617482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73712653431867</c:v>
+                  <c:v>0.234634663242028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.596625439285993</c:v>
+                  <c:v>0.189911775673479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.528556632725803</c:v>
+                  <c:v>0.168244801604638</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.862230828615678</c:v>
+                  <c:v>0.274456596920812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,11 +979,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="67361494"/>
-        <c:axId val="16666345"/>
+        <c:axId val="62703179"/>
+        <c:axId val="83818663"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67361494"/>
+        <c:axId val="62703179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,14 +1020,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16666345"/>
+        <c:crossAx val="83818663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16666345"/>
+        <c:axId val="83818663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67361494"/>
+        <c:crossAx val="62703179"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1111,7 +1111,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation X Over Time</a:t>
+              <a:t>Translation X Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1201,11 +1201,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="27299466"/>
-        <c:axId val="56719082"/>
+        <c:axId val="23516149"/>
+        <c:axId val="49887415"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27299466"/>
+        <c:axId val="23516149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1242,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56719082"/>
+        <c:crossAx val="49887415"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56719082"/>
+        <c:axId val="49887415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27299466"/>
+        <c:crossAx val="23516149"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1304,7 +1304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1324,7 +1324,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Y Over Time</a:t>
+              <a:t>Translation Y Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1414,11 +1414,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74189359"/>
-        <c:axId val="19302685"/>
+        <c:axId val="12095986"/>
+        <c:axId val="78423850"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74189359"/>
+        <c:axId val="12095986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,14 +1455,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19302685"/>
+        <c:crossAx val="78423850"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19302685"/>
+        <c:axId val="78423850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74189359"/>
+        <c:crossAx val="12095986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,7 +1526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1546,7 +1546,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Z Over Time</a:t>
+              <a:t>Translation Z Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1636,11 +1636,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="61438210"/>
-        <c:axId val="76539170"/>
+        <c:axId val="67450195"/>
+        <c:axId val="66925406"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61438210"/>
+        <c:axId val="67450195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1677,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76539170"/>
+        <c:crossAx val="66925406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76539170"/>
+        <c:axId val="66925406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61438210"/>
+        <c:crossAx val="67450195"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,7 +1748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1858,11 +1858,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="71463116"/>
-        <c:axId val="31330227"/>
+        <c:axId val="75013174"/>
+        <c:axId val="43116815"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71463116"/>
+        <c:axId val="75013174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1899,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31330227"/>
+        <c:crossAx val="43116815"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31330227"/>
+        <c:axId val="43116815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71463116"/>
+        <c:crossAx val="75013174"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1970,7 +1970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2080,11 +2080,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="22347940"/>
-        <c:axId val="7126984"/>
+        <c:axId val="47991770"/>
+        <c:axId val="75692193"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22347940"/>
+        <c:axId val="47991770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,14 +2121,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7126984"/>
+        <c:crossAx val="75692193"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7126984"/>
+        <c:axId val="75692193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22347940"/>
+        <c:crossAx val="47991770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2192,7 +2192,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2302,11 +2302,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="476480"/>
-        <c:axId val="13752371"/>
+        <c:axId val="95657949"/>
+        <c:axId val="21105797"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476480"/>
+        <c:axId val="95657949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2343,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13752371"/>
+        <c:crossAx val="21105797"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13752371"/>
+        <c:axId val="21105797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476480"/>
+        <c:crossAx val="95657949"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2414,7 +2414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2434,7 +2434,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Error Over Time</a:t>
+              <a:t>Error Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2524,11 +2524,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="7824249"/>
-        <c:axId val="88250811"/>
+        <c:axId val="98194583"/>
+        <c:axId val="16168241"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7824249"/>
+        <c:axId val="98194583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,14 +2565,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88250811"/>
+        <c:crossAx val="16168241"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88250811"/>
+        <c:axId val="16168241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7824249"/>
+        <c:crossAx val="98194583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2670,16 +2670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:colOff>62640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28282680" y="3900960"/>
+        <a:off x="28272600" y="4073040"/>
         <a:ext cx="5755320" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2701,15 +2701,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>779400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:colOff>808920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:colOff>71640</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28242360" y="7305840"/>
+        <a:off x="28271880" y="7659360"/>
         <a:ext cx="5765040" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2948,8 +2948,8 @@
   </sheetPr>
   <dimension ref="B2:W57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56:M56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2:W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3020,39 +3020,39 @@
         <v>0.92813</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">COS(G5) - SIN(H5) + SIN(G6) + COS(H6)</f>
-        <v>1.09196224660921</v>
+        <f aca="false"> (COS(G5) - SIN(H5) + SIN(G6) + COS(H6)) / PI()</f>
+        <v>0.347582378435175</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">COS(F4) + SIN(H4) - SIN(F6) + COS(H6)</f>
-        <v>1.0922409249816</v>
+        <f aca="false"> (COS(F4) + SIN(H4) - SIN(F6) + COS(H6)) / PI()</f>
+        <v>0.347671084516172</v>
       </c>
       <c r="M4" s="0" t="n">
-        <f aca="false">COS(F4) - SIN(G4) + SIN(F5) + COS(G5)</f>
-        <v>1.09277975699174</v>
+        <f aca="false"> (COS(F4) - SIN(G4) + SIN(F5) + COS(G5)) / PI()</f>
+        <v>0.34784260007199</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">I4</f>
+        <f aca="false"> I4</f>
         <v>0.92813</v>
       </c>
       <c r="P4" s="0" t="n">
-        <f aca="false">I5</f>
+        <f aca="false"> I5</f>
         <v>0.902278</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <f aca="false">I6</f>
+        <f aca="false"> I6</f>
         <v>0.915763</v>
       </c>
       <c r="S4" s="0" t="n">
-        <f aca="false">F4</f>
+        <f aca="false"> F4</f>
         <v>0.999965</v>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">G5</f>
+        <f aca="false"> G5</f>
         <v>0.999967</v>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">H6</f>
+        <f aca="false"> H6</f>
         <v>0.999968</v>
       </c>
       <c r="W4" s="0" t="n">
@@ -3121,39 +3121,39 @@
         <v>45.20512</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">COS(G10) - SIN(H10) + SIN(G11) + COS(H11)</f>
-        <v>1.90520728410881</v>
+        <f aca="false"> (COS(G10) - SIN(H10) + SIN(G11) + COS(H11)) / PI()</f>
+        <v>0.606446313761203</v>
       </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">COS(F9) + SIN(H9) - SIN(F11) + COS(H11)</f>
-        <v>1.71050419214738</v>
+        <f aca="false"> (COS(F9) + SIN(H9) - SIN(F11) + COS(H11)) / PI()</f>
+        <v>0.544470394719331</v>
       </c>
       <c r="M9" s="0" t="n">
-        <f aca="false">COS(F9) - SIN(G9) + SIN(F10) + COS(G10)</f>
-        <v>1.90397599339322</v>
+        <f aca="false"> (COS(F9) - SIN(G9) + SIN(F10) + COS(G10)) / PI()</f>
+        <v>0.606054381753665</v>
       </c>
       <c r="O9" s="0" t="n">
-        <f aca="false">I9</f>
+        <f aca="false"> I9</f>
         <v>45.20512</v>
       </c>
       <c r="P9" s="0" t="n">
-        <f aca="false">I10</f>
+        <f aca="false"> I10</f>
         <v>47.577885</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <f aca="false">I11</f>
+        <f aca="false"> I11</f>
         <v>53.94268</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">F9</f>
+        <f aca="false"> F9</f>
         <v>0.908344</v>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">G10</f>
+        <f aca="false"> G10</f>
         <v>0.880303</v>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">H11</f>
+        <f aca="false"> H11</f>
         <v>0.908138</v>
       </c>
       <c r="W9" s="0" t="n">
@@ -3222,39 +3222,39 @@
         <v>75.181503</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">COS(G15) - SIN(H15) + SIN(G16) + COS(H16)</f>
-        <v>2.79491689493154</v>
+        <f aca="false"> (COS(G15) - SIN(H15) + SIN(G16) + COS(H16)) / PI()</f>
+        <v>0.889649678718812</v>
       </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">COS(F14) + SIN(H14) - SIN(F16) + COS(H16)</f>
-        <v>2.16393692894263</v>
+        <f aca="false"> (COS(F14) + SIN(H14) - SIN(F16) + COS(H16)) / PI()</f>
+        <v>0.688802517560629</v>
       </c>
       <c r="M14" s="0" t="n">
-        <f aca="false">COS(F14) - SIN(G14) + SIN(F15) + COS(G15)</f>
-        <v>2.79356014604305</v>
+        <f aca="false"> (COS(F14) - SIN(G14) + SIN(F15) + COS(G15)) / PI()</f>
+        <v>0.889217812134537</v>
       </c>
       <c r="O14" s="0" t="n">
-        <f aca="false">I14</f>
+        <f aca="false"> I14</f>
         <v>75.181503</v>
       </c>
       <c r="P14" s="0" t="n">
-        <f aca="false">I15</f>
+        <f aca="false"> I15</f>
         <v>73.225212</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <f aca="false">I16</f>
+        <f aca="false"> I16</f>
         <v>131.552124</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">F14</f>
+        <f aca="false"> F14</f>
         <v>0.671972</v>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">G15</f>
+        <f aca="false"> G15</f>
         <v>0.48342</v>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">H16</f>
+        <f aca="false"> H16</f>
         <v>0.671455</v>
       </c>
       <c r="W14" s="0" t="n">
@@ -3323,39 +3323,39 @@
         <v>98.702133</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">COS(G20) - SIN(H20) + SIN(G21) + COS(H21)</f>
-        <v>3.15276629955035</v>
+        <f aca="false"> (COS(G20) - SIN(H20) + SIN(G21) + COS(H21)) / PI()</f>
+        <v>1.00355668197396</v>
       </c>
       <c r="L19" s="0" t="n">
-        <f aca="false">COS(F19) + SIN(H19) - SIN(F21) + COS(H21)</f>
-        <v>2.24888879551982</v>
+        <f aca="false"> (COS(F19) + SIN(H19) - SIN(F21) + COS(H21)) / PI()</f>
+        <v>0.715843536541915</v>
       </c>
       <c r="M19" s="0" t="n">
-        <f aca="false">COS(F19) - SIN(G19) + SIN(F20) + COS(G20)</f>
-        <v>3.14976543178908</v>
+        <f aca="false"> (COS(F19) - SIN(G19) + SIN(F20) + COS(G20)) / PI()</f>
+        <v>1.00260147609842</v>
       </c>
       <c r="O19" s="0" t="n">
-        <f aca="false">I19</f>
+        <f aca="false"> I19</f>
         <v>98.702133</v>
       </c>
       <c r="P19" s="0" t="n">
-        <f aca="false">I20</f>
+        <f aca="false"> I20</f>
         <v>38.374565</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <f aca="false">I21</f>
+        <f aca="false"> I21</f>
         <v>228.131638</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">F19</f>
+        <f aca="false"> F19</f>
         <v>0.375935</v>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">G20</f>
+        <f aca="false"> G20</f>
         <v>-0.119776</v>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">H21</f>
+        <f aca="false"> H21</f>
         <v>0.373698</v>
       </c>
       <c r="W19" s="0" t="n">
@@ -3424,39 +3424,39 @@
         <v>141.272659</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">COS(G25) - SIN(H25) + SIN(G26) + COS(H26)</f>
-        <v>2.67002215059018</v>
+        <f aca="false"> (COS(G25) - SIN(H25) + SIN(G26) + COS(H26)) / PI()</f>
+        <v>0.84989444686256</v>
       </c>
       <c r="L24" s="0" t="n">
-        <f aca="false">COS(F24) + SIN(H24) - SIN(F26) + COS(H26)</f>
-        <v>2.09872058344424</v>
+        <f aca="false"> (COS(F24) + SIN(H24) - SIN(F26) + COS(H26)) / PI()</f>
+        <v>0.668043510047716</v>
       </c>
       <c r="M24" s="0" t="n">
-        <f aca="false">COS(F24) - SIN(G24) + SIN(F25) + COS(G25)</f>
-        <v>2.66866529940359</v>
+        <f aca="false"> (COS(F24) - SIN(G24) + SIN(F25) + COS(G25)) / PI()</f>
+        <v>0.849462547715788</v>
       </c>
       <c r="O24" s="0" t="n">
-        <f aca="false">I24</f>
+        <f aca="false"> I24</f>
         <v>141.272659</v>
       </c>
       <c r="P24" s="0" t="n">
-        <f aca="false">I25</f>
+        <f aca="false"> I25</f>
         <v>-76.090965</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <f aca="false">I26</f>
+        <f aca="false"> I26</f>
         <v>293.775726</v>
       </c>
       <c r="S24" s="0" t="n">
-        <f aca="false">F24</f>
+        <f aca="false"> F24</f>
         <v>0.12279</v>
       </c>
       <c r="T24" s="0" t="n">
-        <f aca="false">G25</f>
+        <f aca="false"> G25</f>
         <v>-0.702022</v>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">H26</f>
+        <f aca="false"> H26</f>
         <v>0.120706</v>
       </c>
       <c r="W24" s="0" t="n">
@@ -3525,39 +3525,39 @@
         <v>228.461227</v>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">COS(G30) - SIN(H30) + SIN(G31) + COS(H31)</f>
-        <v>1.70950729254276</v>
+        <f aca="false"> (COS(G30) - SIN(H30) + SIN(G31) + COS(H31)) / PI()</f>
+        <v>0.544153071719646</v>
       </c>
       <c r="L29" s="0" t="n">
-        <f aca="false">COS(F29) + SIN(H29) - SIN(F31) + COS(H31)</f>
-        <v>2.00235866612356</v>
+        <f aca="false"> (COS(F29) + SIN(H29) - SIN(F31) + COS(H31)) / PI()</f>
+        <v>0.637370559112918</v>
       </c>
       <c r="M29" s="0" t="n">
-        <f aca="false">COS(F29) - SIN(G29) + SIN(F30) + COS(G30)</f>
-        <v>1.70935073551528</v>
+        <f aca="false"> (COS(F29) - SIN(G29) + SIN(F30) + COS(G30)) / PI()</f>
+        <v>0.544103238070047</v>
       </c>
       <c r="O29" s="0" t="n">
-        <f aca="false">I29</f>
+        <f aca="false"> I29</f>
         <v>228.461227</v>
       </c>
       <c r="P29" s="0" t="n">
-        <f aca="false">I30</f>
+        <f aca="false"> I30</f>
         <v>-226.333984</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <f aca="false">I31</f>
+        <f aca="false"> I31</f>
         <v>266.918427</v>
       </c>
       <c r="S29" s="0" t="n">
-        <f aca="false">F29</f>
+        <f aca="false"> F29</f>
         <v>0.003803</v>
       </c>
       <c r="T29" s="0" t="n">
-        <f aca="false">G30</f>
+        <f aca="false"> G30</f>
         <v>-0.993106</v>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">H31</f>
+        <f aca="false"> H31</f>
         <v>0.002167</v>
       </c>
       <c r="W29" s="0" t="n">
@@ -3626,39 +3626,39 @@
         <v>366.517975</v>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">COS(G35) - SIN(H35) + SIN(G36) + COS(H36)</f>
-        <v>0.970025941580834</v>
+        <f aca="false"> (COS(G35) - SIN(H35) + SIN(G36) + COS(H36)) / PI()</f>
+        <v>0.30876884705992</v>
       </c>
       <c r="L34" s="0" t="n">
-        <f aca="false">COS(F34) + SIN(H34) - SIN(F36) + COS(H36)</f>
-        <v>2.04929876360653</v>
+        <f aca="false"> (COS(F34) + SIN(H34) - SIN(F36) + COS(H36)) / PI()</f>
+        <v>0.652312056200176</v>
       </c>
       <c r="M34" s="0" t="n">
-        <f aca="false">COS(F34) - SIN(G34) + SIN(F35) + COS(G35)</f>
-        <v>0.970282432381484</v>
+        <f aca="false"> (COS(F34) - SIN(G34) + SIN(F35) + COS(G35)) / PI()</f>
+        <v>0.308850490617482</v>
       </c>
       <c r="O34" s="0" t="n">
-        <f aca="false">I34</f>
+        <f aca="false"> I34</f>
         <v>366.517975</v>
       </c>
       <c r="P34" s="0" t="n">
-        <f aca="false">I35</f>
+        <f aca="false"> I35</f>
         <v>-312.953827</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <f aca="false">I36</f>
+        <f aca="false"> I36</f>
         <v>137.096161</v>
       </c>
       <c r="S34" s="0" t="n">
-        <f aca="false">F34</f>
+        <f aca="false"> F34</f>
         <v>0.060453</v>
       </c>
       <c r="T34" s="0" t="n">
-        <f aca="false">G35</f>
+        <f aca="false"> G35</f>
         <v>-0.851697</v>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">H36</f>
+        <f aca="false"> H36</f>
         <v>0.05959</v>
       </c>
       <c r="W34" s="0" t="n">
@@ -3727,39 +3727,39 @@
         <v>530.019531</v>
       </c>
       <c r="K39" s="0" t="n">
-        <f aca="false">COS(G40) - SIN(H40) + SIN(G41) + COS(H41)</f>
-        <v>0.736519762918977</v>
+        <f aca="false"> (COS(G40) - SIN(H40) + SIN(G41) + COS(H41)) / PI()</f>
+        <v>0.234441521906852</v>
       </c>
       <c r="L39" s="0" t="n">
-        <f aca="false">COS(F39) + SIN(H39) - SIN(F41) + COS(H41)</f>
-        <v>2.20449717654015</v>
+        <f aca="false"> (COS(F39) + SIN(H39) - SIN(F41) + COS(H41)) / PI()</f>
+        <v>0.701713245356983</v>
       </c>
       <c r="M39" s="0" t="n">
-        <f aca="false">COS(F39) - SIN(G39) + SIN(F40) + COS(G40)</f>
-        <v>0.73712653431867</v>
+        <f aca="false"> (COS(F39) - SIN(G39) + SIN(F40) + COS(G40)) / PI()</f>
+        <v>0.234634663242028</v>
       </c>
       <c r="O39" s="0" t="n">
-        <f aca="false">I39</f>
+        <f aca="false"> I39</f>
         <v>530.019531</v>
       </c>
       <c r="P39" s="0" t="n">
-        <f aca="false">I40</f>
+        <f aca="false"> I40</f>
         <v>-245.346451</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <f aca="false">I41</f>
+        <f aca="false"> I41</f>
         <v>-19.574766</v>
       </c>
       <c r="S39" s="0" t="n">
-        <f aca="false">F39</f>
+        <f aca="false"> F39</f>
         <v>0.273941</v>
       </c>
       <c r="T39" s="0" t="n">
-        <f aca="false">G40</f>
+        <f aca="false"> G40</f>
         <v>-0.346828</v>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">H41</f>
+        <f aca="false"> H41</f>
         <v>0.272647</v>
       </c>
       <c r="W39" s="0" t="n">
@@ -3828,39 +3828,39 @@
         <v>662.941589</v>
       </c>
       <c r="K44" s="0" t="n">
-        <f aca="false">COS(G45) - SIN(H45) + SIN(G46) + COS(H46)</f>
-        <v>0.595469593176294</v>
+        <f aca="false"> (COS(G45) - SIN(H45) + SIN(G46) + COS(H46)) / PI()</f>
+        <v>0.189543858429854</v>
       </c>
       <c r="L44" s="0" t="n">
-        <f aca="false">COS(F44) + SIN(H44) - SIN(F46) + COS(H46)</f>
-        <v>2.23991108589231</v>
+        <f aca="false"> (COS(F44) + SIN(H44) - SIN(F46) + COS(H46)) / PI()</f>
+        <v>0.712985842812192</v>
       </c>
       <c r="M44" s="0" t="n">
-        <f aca="false">COS(F44) - SIN(G44) + SIN(F45) + COS(G45)</f>
-        <v>0.596625439285993</v>
+        <f aca="false"> (COS(F44) - SIN(G44) + SIN(F45) + COS(G45)) / PI()</f>
+        <v>0.189911775673479</v>
       </c>
       <c r="O44" s="0" t="n">
-        <f aca="false">I44</f>
+        <f aca="false"> I44</f>
         <v>662.941589</v>
       </c>
       <c r="P44" s="0" t="n">
-        <f aca="false">I45</f>
+        <f aca="false"> I45</f>
         <v>-17.985527</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <f aca="false">I46</f>
+        <f aca="false"> I46</f>
         <v>-75.215591</v>
       </c>
       <c r="S44" s="0" t="n">
-        <f aca="false">F44</f>
+        <f aca="false"> F44</f>
         <v>0.566876</v>
       </c>
       <c r="T44" s="0" t="n">
-        <f aca="false">G45</f>
+        <f aca="false"> G45</f>
         <v>0.280457</v>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">H46</f>
+        <f aca="false"> H46</f>
         <v>0.565556</v>
       </c>
       <c r="W44" s="0" t="n">
@@ -3929,39 +3929,39 @@
         <v>698.55957</v>
       </c>
       <c r="K49" s="0" t="n">
-        <f aca="false">COS(G50) - SIN(H50) + SIN(G51) + COS(H51)</f>
-        <v>0.526846060030949</v>
+        <f aca="false"> (COS(G50) - SIN(H50) + SIN(G51) + COS(H51)) / PI()</f>
+        <v>0.16770030940483</v>
       </c>
       <c r="L49" s="0" t="n">
-        <f aca="false">COS(F49) + SIN(H49) - SIN(F51) + COS(H51)</f>
-        <v>1.90722719973279</v>
+        <f aca="false"> (COS(F49) + SIN(H49) - SIN(F51) + COS(H51)) / PI()</f>
+        <v>0.607089272873573</v>
       </c>
       <c r="M49" s="0" t="n">
-        <f aca="false">COS(F49) - SIN(G49) + SIN(F50) + COS(G50)</f>
-        <v>0.528556632725803</v>
+        <f aca="false"> (COS(F49) - SIN(G49) + SIN(F50) + COS(G50)) / PI()</f>
+        <v>0.168244801604638</v>
       </c>
       <c r="O49" s="0" t="n">
-        <f aca="false">I49</f>
+        <f aca="false"> I49</f>
         <v>698.55957</v>
       </c>
       <c r="P49" s="0" t="n">
-        <f aca="false">I50</f>
+        <f aca="false"> I50</f>
         <v>268.522614</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <f aca="false">I51</f>
+        <f aca="false"> I51</f>
         <v>61.129768</v>
       </c>
       <c r="S49" s="0" t="n">
-        <f aca="false">F49</f>
+        <f aca="false"> F49</f>
         <v>0.837078</v>
       </c>
       <c r="T49" s="0" t="n">
-        <f aca="false">G50</f>
+        <f aca="false"> G50</f>
         <v>0.770289</v>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">H51</f>
+        <f aca="false"> H51</f>
         <v>0.836378</v>
       </c>
       <c r="W49" s="0" t="n">
@@ -4030,39 +4030,39 @@
         <v>585.573181</v>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="false">COS(G55) - SIN(H55) + SIN(G56) + COS(H56)</f>
-        <v>0.86160517717095</v>
+        <f aca="false"> (COS(G55) - SIN(H55) + SIN(G56) + COS(H56)) / PI()</f>
+        <v>0.27425744588065</v>
       </c>
       <c r="L54" s="0" t="n">
-        <f aca="false">COS(F54) + SIN(H54) - SIN(F56) + COS(H56)</f>
-        <v>1.31273233501341</v>
+        <f aca="false"> (COS(F54) + SIN(H54) - SIN(F56) + COS(H56)) / PI()</f>
+        <v>0.417855680147901</v>
       </c>
       <c r="M54" s="0" t="n">
-        <f aca="false">COS(F54) - SIN(G54) + SIN(F55) + COS(G55)</f>
-        <v>0.862230828615678</v>
+        <f aca="false"> (COS(F54) - SIN(G54) + SIN(F55) + COS(G55)) / PI()</f>
+        <v>0.274456596920812</v>
       </c>
       <c r="O54" s="0" t="n">
-        <f aca="false">I54</f>
+        <f aca="false"> I54</f>
         <v>585.573181</v>
       </c>
       <c r="P54" s="0" t="n">
-        <f aca="false">I55</f>
+        <f aca="false"> I55</f>
         <v>468.351837</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <f aca="false">I56</f>
+        <f aca="false"> I56</f>
         <v>365.996643</v>
       </c>
       <c r="S54" s="0" t="n">
-        <f aca="false">F54</f>
+        <f aca="false"> F54</f>
         <v>0.987974</v>
       </c>
       <c r="T54" s="0" t="n">
-        <f aca="false">G55</f>
+        <f aca="false"> G55</f>
         <v>0.98651</v>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">H56</f>
+        <f aca="false"> H56</f>
         <v>0.987923</v>
       </c>
       <c r="W54" s="0" t="n">
